--- a/path_catalogue.xlsx
+++ b/path_catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markampa/loinc_in_obo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BA505-EC9B-C845-84F2-45A8C6AFB616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B15D9-01F2-CA4F-92EC-DB31CC5FDD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20980" xr2:uid="{706C5B37-6835-0F4C-B57E-6AC28EDA1BA4}"/>
   </bookViews>
@@ -41,18 +41,12 @@
     <t>product</t>
   </si>
   <si>
-    <t>tagged</t>
-  </si>
-  <si>
     <t>path illustrated</t>
   </si>
   <si>
     <t>IN, PIN</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>structural class</t>
   </si>
   <si>
@@ -86,30 +80,18 @@
     <t>different anything, like RxNorm IN -&gt; SCD</t>
   </si>
   <si>
-    <t>IRI owner (from Solr search, etc.)</t>
-  </si>
-  <si>
-    <t>TMM employment/RxNorm TTY</t>
-  </si>
-  <si>
     <t>RxNorm TTY term type</t>
   </si>
   <si>
     <t>anticipated complexity, 5 = highest</t>
   </si>
   <si>
-    <t>owner and employment in Solr?</t>
-  </si>
-  <si>
     <t>notes. Assumes BioPortal mappings perfect.</t>
   </si>
   <si>
     <t>via ChEBI ingredient. Assumes ChEBI roles have perfect sensitivity and specificity.</t>
   </si>
   <si>
-    <t>via ChEBI ingredient. May be safe to assume that ChEBI structural classes are accurate. They're also complex and noisy.</t>
-  </si>
-  <si>
     <t>tagging statement added to R script in pipeline?</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
   </si>
   <si>
     <t>NDF-RT</t>
-  </si>
-  <si>
-    <t>requires RxNorm whitelisted predicate chains, or complex traversal through DrOn and multiple BioPortal hops</t>
   </si>
   <si>
     <t>save all possible paths for later. Variable complexity from 0 to 5.</t>
@@ -175,6 +154,27 @@
       <t>) and brand names at this point.</t>
     </r>
   </si>
+  <si>
+    <t>TMM employment / RxNorm TTY</t>
+  </si>
+  <si>
+    <t>requires RxNorm whitelisted predicate chains, or complex traversal through DrOn plus multiple BioPortal hops</t>
+  </si>
+  <si>
+    <t>Via ChEBI ingredient. May be safe to assume that ChEBI structural classes are accurate. They're also complex and noisy. Too irregular in ChEBI. Use ATC instead.</t>
+  </si>
+  <si>
+    <t>curated role</t>
+  </si>
+  <si>
+    <t>IRI definer (from Solr search, etc.)</t>
+  </si>
+  <si>
+    <t>definer and employment in Solr?</t>
+  </si>
+  <si>
+    <t>tagged in graph?</t>
+  </si>
 </sst>
 </file>
 
@@ -214,12 +214,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,6 +261,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,13 +589,13 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -576,75 +603,75 @@
     <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="b">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="e">
+      <c r="D2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -659,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>0</v>
@@ -668,12 +695,12 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -688,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>0</v>
@@ -697,12 +724,12 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -717,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -726,12 +753,12 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -746,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>0</v>
@@ -755,12 +782,12 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -775,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>0</v>
@@ -786,13 +813,13 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
@@ -807,122 +834,122 @@
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="e">
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="e">
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
